--- a/data/processed/mobile_missing_items_rate_higher.xlsx
+++ b/data/processed/mobile_missing_items_rate_higher.xlsx
@@ -474,8 +474,10 @@
       <c r="A2" t="n">
         <v>2015</v>
       </c>
-      <c r="B2" t="n">
-        <v>1608</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1608</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -505,8 +507,10 @@
       <c r="A3" t="n">
         <v>2017</v>
       </c>
-      <c r="B3" t="n">
-        <v>3069</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -523,8 +527,10 @@
           <t>Practioner</t>
         </is>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -534,8 +540,10 @@
       <c r="A4" t="n">
         <v>2016</v>
       </c>
-      <c r="B4" t="n">
-        <v>1476</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -552,8 +560,10 @@
           <t>Adults Smartphone and PC User</t>
         </is>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -563,8 +573,10 @@
       <c r="A5" t="n">
         <v>2014</v>
       </c>
-      <c r="B5" t="n">
-        <v>2000</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -581,8 +593,10 @@
           <t>Students</t>
         </is>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -592,8 +606,10 @@
       <c r="A6" t="n">
         <v>2011</v>
       </c>
-      <c r="B6" t="n">
-        <v>1310</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -610,8 +626,10 @@
           <t>iPhone Owner</t>
         </is>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -621,8 +639,10 @@
       <c r="A7" t="n">
         <v>2018</v>
       </c>
-      <c r="B7" t="n">
-        <v>3517</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3517</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -639,8 +659,10 @@
           <t>German Adults</t>
         </is>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -650,8 +672,10 @@
       <c r="A8" t="n">
         <v>2014</v>
       </c>
-      <c r="B8" t="n">
-        <v>5077</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5077</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -677,8 +701,10 @@
       <c r="A9" t="n">
         <v>2014</v>
       </c>
-      <c r="B9" t="n">
-        <v>2913</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2913</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -695,8 +721,10 @@
           <t>German Adults</t>
         </is>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -706,8 +734,10 @@
       <c r="A10" t="n">
         <v>2013</v>
       </c>
-      <c r="B10" t="n">
-        <v>6226</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6226</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -724,8 +754,10 @@
           <t>Dutch Adults</t>
         </is>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -735,8 +767,10 @@
       <c r="A11" t="n">
         <v>2015</v>
       </c>
-      <c r="B11" t="n">
-        <v>512</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -753,8 +787,10 @@
           <t>Adult Household Population</t>
         </is>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -764,8 +800,10 @@
       <c r="A12" t="n">
         <v>2014</v>
       </c>
-      <c r="B12" t="n">
-        <v>1721</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
